--- a/Examples/steam/steam_diagnosis.xlsx
+++ b/Examples/steam/steam_diagnosis.xlsx
@@ -6,24 +6,26 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="flows" sheetId="2" r:id="rId3"/>
-    <sheet name="streams" sheetId="3" r:id="rId5"/>
-    <sheet name="processes" sheetId="4" r:id="rId6"/>
-    <sheet name="eflows" sheetId="5" r:id="rId7"/>
-    <sheet name="estreams" sheetId="6" r:id="rId8"/>
-    <sheet name="eprocesses" sheetId="7" r:id="rId9"/>
-    <sheet name="tfp" sheetId="8" r:id="rId10"/>
-    <sheet name="dcost" sheetId="9" r:id="rId11"/>
-    <sheet name="ducost" sheetId="10" r:id="rId12"/>
-    <sheet name="dfcost" sheetId="11" r:id="rId13"/>
-    <sheet name="dcfp" sheetId="12" r:id="rId14"/>
-    <sheet name="dcfpr" sheetId="13" r:id="rId15"/>
-    <sheet name="dict" sheetId="14" r:id="rId16"/>
-    <sheet name="dfict" sheetId="15" r:id="rId17"/>
-    <sheet name="dgn" sheetId="16" r:id="rId18"/>
-    <sheet name="mf" sheetId="17" r:id="rId19"/>
-    <sheet name="mfc" sheetId="18" r:id="rId20"/>
-    <sheet name="dit" sheetId="19" r:id="rId21"/>
+    <sheet name="Index" sheetId="2" r:id="rId3"/>
+    <sheet name="flow" sheetId="3" r:id="rId5"/>
+    <sheet name="stream" sheetId="4" r:id="rId6"/>
+    <sheet name="process" sheetId="5" r:id="rId7"/>
+    <sheet name="eflow" sheetId="6" r:id="rId8"/>
+    <sheet name="estream" sheetId="7" r:id="rId9"/>
+    <sheet name="eprocess" sheetId="8" r:id="rId10"/>
+    <sheet name="tfp" sheetId="9" r:id="rId11"/>
+    <sheet name="dcost" sheetId="10" r:id="rId12"/>
+    <sheet name="ducost" sheetId="11" r:id="rId13"/>
+    <sheet name="dfcost" sheetId="12" r:id="rId14"/>
+    <sheet name="dcfp" sheetId="13" r:id="rId15"/>
+    <sheet name="dcfpr" sheetId="14" r:id="rId16"/>
+    <sheet name="dict" sheetId="15" r:id="rId17"/>
+    <sheet name="dfict" sheetId="16" r:id="rId18"/>
+    <sheet name="wa" sheetId="17" r:id="rId19"/>
+    <sheet name="dgn" sheetId="18" r:id="rId20"/>
+    <sheet name="mf" sheetId="19" r:id="rId21"/>
+    <sheet name="mfc" sheetId="20" r:id="rId22"/>
+    <sheet name="dit" sheetId="21" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -31,11 +33,131 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="513">
   <si>
     <t>Key</t>
   </si>
   <si>
+    <t>flows</t>
+  </si>
+  <si>
+    <t>streams</t>
+  </si>
+  <si>
+    <t>processes</t>
+  </si>
+  <si>
+    <t>eflows</t>
+  </si>
+  <si>
+    <t>estreams</t>
+  </si>
+  <si>
+    <t>eprocesses</t>
+  </si>
+  <si>
+    <t>tfp</t>
+  </si>
+  <si>
+    <t>dcost</t>
+  </si>
+  <si>
+    <t>ducost</t>
+  </si>
+  <si>
+    <t>dfcost</t>
+  </si>
+  <si>
+    <t>dcfp</t>
+  </si>
+  <si>
+    <t>dcfpr</t>
+  </si>
+  <si>
+    <t>dict</t>
+  </si>
+  <si>
+    <t>dfict</t>
+  </si>
+  <si>
+    <t>wa</t>
+  </si>
+  <si>
+    <t>dgn</t>
+  </si>
+  <si>
+    <t>mf</t>
+  </si>
+  <si>
+    <t>mfc</t>
+  </si>
+  <si>
+    <t>dit</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Flows Table</t>
+  </si>
+  <si>
+    <t>Streams Table</t>
+  </si>
+  <si>
+    <t>Processes Table</t>
+  </si>
+  <si>
+    <t>Flows Exergy Table</t>
+  </si>
+  <si>
+    <t>Streams Exergy Table</t>
+  </si>
+  <si>
+    <t>Processes Exergy Table</t>
+  </si>
+  <si>
+    <t>FP Table</t>
+  </si>
+  <si>
+    <t>Process Exergy Cost</t>
+  </si>
+  <si>
+    <t>Process Unit Exergy Cost</t>
+  </si>
+  <si>
+    <t>Flows Exergy Cost</t>
+  </si>
+  <si>
+    <t>FP Exergy Cost Table</t>
+  </si>
+  <si>
+    <t>FPR Exergy Cost Table</t>
+  </si>
+  <si>
+    <t>Irreversibility-Cost Table</t>
+  </si>
+  <si>
+    <t>Flows Irreversibility-Cost Table</t>
+  </si>
+  <si>
+    <t>Waste Allocation Table</t>
+  </si>
+  <si>
+    <t>Diagnosis Summary</t>
+  </si>
+  <si>
+    <t>Malfunction Table</t>
+  </si>
+  <si>
+    <t>Malfunction Cost Table</t>
+  </si>
+  <si>
+    <t>Irreversibility Variation Table</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
     <t>B1</t>
   </si>
   <si>
@@ -63,25 +185,25 @@
     <t>B9</t>
   </si>
   <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>B13</t>
-  </si>
-  <si>
-    <t>B14</t>
-  </si>
-  <si>
-    <t>B15</t>
-  </si>
-  <si>
-    <t>B16</t>
+    <t>WT1</t>
+  </si>
+  <si>
+    <t>WT2</t>
+  </si>
+  <si>
+    <t>WP1</t>
+  </si>
+  <si>
+    <t>WP2</t>
+  </si>
+  <si>
+    <t>WN</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>QC</t>
   </si>
   <si>
     <t>From</t>
@@ -258,7 +380,7 @@
     <t>Definition</t>
   </si>
   <si>
-    <t>B15</t>
+    <t>NG</t>
   </si>
   <si>
     <t>B1-B8</t>
@@ -270,16 +392,16 @@
     <t>B1-B2-B9</t>
   </si>
   <si>
-    <t>B10</t>
+    <t>WT1</t>
   </si>
   <si>
     <t>B3-B4</t>
   </si>
   <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>B12</t>
+    <t>WT2</t>
+  </si>
+  <si>
+    <t>WP1</t>
   </si>
   <si>
     <t>B6-B5</t>
@@ -291,31 +413,31 @@
     <t>B7</t>
   </si>
   <si>
-    <t>B13</t>
+    <t>WP2</t>
   </si>
   <si>
     <t>B8-B7</t>
   </si>
   <si>
-    <t>B10+B11</t>
-  </si>
-  <si>
-    <t>B12+B13+B14</t>
+    <t>WT1+WT2</t>
+  </si>
+  <si>
+    <t>WP1+WP2+WN</t>
   </si>
   <si>
     <t>B4-B5</t>
   </si>
   <si>
-    <t>B16</t>
-  </si>
-  <si>
-    <t>B14</t>
-  </si>
-  <si>
-    <t>B15</t>
-  </si>
-  <si>
-    <t>B16</t>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>WN</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>QC</t>
   </si>
   <si>
     <t>Type</t>
@@ -405,37 +527,10 @@
     <t>COND</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Boiler</t>
-  </si>
-  <si>
-    <t>HP Turbine</t>
-  </si>
-  <si>
-    <t>LP Turbine</t>
-  </si>
-  <si>
-    <t>LP Pump</t>
-  </si>
-  <si>
-    <t>Dereator</t>
-  </si>
-  <si>
-    <t>LP Pump</t>
-  </si>
-  <si>
-    <t>Generator</t>
-  </si>
-  <si>
-    <t>Condenser</t>
-  </si>
-  <si>
     <t>Fuel</t>
   </si>
   <si>
-    <t>B15</t>
+    <t>NG</t>
   </si>
   <si>
     <t>B1-B2-B9</t>
@@ -444,16 +539,16 @@
     <t>B3-B4</t>
   </si>
   <si>
-    <t>B12</t>
+    <t>WP1</t>
   </si>
   <si>
     <t>B6+B9</t>
   </si>
   <si>
-    <t>B13</t>
-  </si>
-  <si>
-    <t>B10+B11</t>
+    <t>WP2</t>
+  </si>
+  <si>
+    <t>WT1+WT2</t>
   </si>
   <si>
     <t>B4-B5</t>
@@ -465,10 +560,10 @@
     <t>(B1-B8)+(B3-B2)</t>
   </si>
   <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>B11</t>
+    <t>WT1</t>
+  </si>
+  <si>
+    <t>WT2</t>
   </si>
   <si>
     <t>B6-B5</t>
@@ -480,10 +575,10 @@
     <t>B8-B7</t>
   </si>
   <si>
-    <t>B12+B13+B14</t>
-  </si>
-  <si>
-    <t>B16</t>
+    <t>WP1+WP2+WN</t>
+  </si>
+  <si>
+    <t>QC</t>
   </si>
   <si>
     <t>Type</t>
@@ -525,25 +620,25 @@
     <t>B9</t>
   </si>
   <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>B13</t>
-  </si>
-  <si>
-    <t>B14</t>
-  </si>
-  <si>
-    <t>B15</t>
-  </si>
-  <si>
-    <t>B16</t>
+    <t>WT1</t>
+  </si>
+  <si>
+    <t>WT2</t>
+  </si>
+  <si>
+    <t>WP1</t>
+  </si>
+  <si>
+    <t>WP2</t>
+  </si>
+  <si>
+    <t>WN</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>QC</t>
   </si>
   <si>
     <t>From</t>
@@ -639,7 +734,7 @@
     <t>ENV_W1</t>
   </si>
   <si>
-    <t>B (kW)</t>
+    <t>B(kW)</t>
   </si>
   <si>
     <t>Key</t>
@@ -705,10 +800,10 @@
     <t>ENV_W1</t>
   </si>
   <si>
-    <t>E (kW)</t>
-  </si>
-  <si>
-    <t>ET (kW)</t>
+    <t>E(kW)</t>
+  </si>
+  <si>
+    <t>ET(kW)</t>
   </si>
   <si>
     <t>Key</t>
@@ -741,16 +836,16 @@
     <t>ENV</t>
   </si>
   <si>
-    <t>F (kW)</t>
-  </si>
-  <si>
-    <t>P (kW)</t>
-  </si>
-  <si>
-    <t>I (kW)</t>
-  </si>
-  <si>
-    <t>k (J/J)</t>
+    <t>F(kW)</t>
+  </si>
+  <si>
+    <t>P(kW)</t>
+  </si>
+  <si>
+    <t>I(kW)</t>
+  </si>
+  <si>
+    <t>k(J/J)</t>
   </si>
   <si>
     <t>Key</t>
@@ -843,19 +938,19 @@
     <t>COND</t>
   </si>
   <si>
-    <t>P* (kW)</t>
-  </si>
-  <si>
-    <t>Pe* (kW)</t>
-  </si>
-  <si>
-    <t>Pr* (kW)</t>
-  </si>
-  <si>
-    <t>F* (kW)</t>
-  </si>
-  <si>
-    <t>R* (kW)</t>
+    <t>P*(kW)</t>
+  </si>
+  <si>
+    <t>Pe*(kW)</t>
+  </si>
+  <si>
+    <t>Pr*(kW)</t>
+  </si>
+  <si>
+    <t>F*(kW)</t>
+  </si>
+  <si>
+    <t>R*(kW)</t>
   </si>
   <si>
     <t>Key</t>
@@ -885,22 +980,22 @@
     <t>COND</t>
   </si>
   <si>
-    <t>kP* (J/J)</t>
-  </si>
-  <si>
-    <t>kPe* (J/J)</t>
-  </si>
-  <si>
-    <t>kPr* (J/J)</t>
-  </si>
-  <si>
-    <t>kF* (J/J)</t>
-  </si>
-  <si>
-    <t>kR* (J/J)</t>
-  </si>
-  <si>
-    <t>k (J/J)</t>
+    <t>kP*(J/J)</t>
+  </si>
+  <si>
+    <t>kPe*(J/J)</t>
+  </si>
+  <si>
+    <t>kPr*(J/J)</t>
+  </si>
+  <si>
+    <t>kF*(J/J)</t>
+  </si>
+  <si>
+    <t>kR*(J/J)</t>
+  </si>
+  <si>
+    <t>k(J/J)</t>
   </si>
   <si>
     <t>Key</t>
@@ -933,46 +1028,46 @@
     <t>B9</t>
   </si>
   <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>B13</t>
-  </si>
-  <si>
-    <t>B14</t>
-  </si>
-  <si>
-    <t>B15</t>
-  </si>
-  <si>
-    <t>B16</t>
-  </si>
-  <si>
-    <t>B (kW)</t>
-  </si>
-  <si>
-    <t>B* (kW)</t>
-  </si>
-  <si>
-    <t>Be* (kW)</t>
-  </si>
-  <si>
-    <t>Br* (kW)</t>
-  </si>
-  <si>
-    <t>k* (J/J)</t>
-  </si>
-  <si>
-    <t>ke* (J/J)</t>
-  </si>
-  <si>
-    <t>kr* (J/J)</t>
+    <t>WT1</t>
+  </si>
+  <si>
+    <t>WT2</t>
+  </si>
+  <si>
+    <t>WP1</t>
+  </si>
+  <si>
+    <t>WP2</t>
+  </si>
+  <si>
+    <t>WN</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>B(kW)</t>
+  </si>
+  <si>
+    <t>B*(kW)</t>
+  </si>
+  <si>
+    <t>Be*(kW)</t>
+  </si>
+  <si>
+    <t>Br*(kW)</t>
+  </si>
+  <si>
+    <t>k*(J/J)</t>
+  </si>
+  <si>
+    <t>ke*(J/J)</t>
+  </si>
+  <si>
+    <t>kr*(J/J)</t>
   </si>
   <si>
     <t>Key</t>
@@ -1218,25 +1313,25 @@
     <t>B9</t>
   </si>
   <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>B13</t>
-  </si>
-  <si>
-    <t>B14</t>
-  </si>
-  <si>
-    <t>B15</t>
-  </si>
-  <si>
-    <t>B16</t>
+    <t>WT1</t>
+  </si>
+  <si>
+    <t>WT2</t>
+  </si>
+  <si>
+    <t>WP1</t>
+  </si>
+  <si>
+    <t>WP2</t>
+  </si>
+  <si>
+    <t>WN</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>QC</t>
   </si>
   <si>
     <t>Key</t>
@@ -1245,6 +1340,15 @@
     <t>BOIL</t>
   </si>
   <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>BOIL</t>
+  </si>
+  <si>
     <t>HTRB</t>
   </si>
   <si>
@@ -1269,22 +1373,22 @@
     <t>ENV</t>
   </si>
   <si>
-    <t>MF (kW)</t>
-  </si>
-  <si>
-    <t>DI (kW)</t>
-  </si>
-  <si>
-    <t>DPs (kW)</t>
-  </si>
-  <si>
-    <t>MF* (kW)</t>
-  </si>
-  <si>
-    <t>MR* (kW)</t>
-  </si>
-  <si>
-    <t>DPs* (kW)</t>
+    <t>MF(kW)</t>
+  </si>
+  <si>
+    <t>DI(kW)</t>
+  </si>
+  <si>
+    <t>DPs(kW)</t>
+  </si>
+  <si>
+    <t>MF*(kW)</t>
+  </si>
+  <si>
+    <t>MR*(kW)</t>
+  </si>
+  <si>
+    <t>DPs*(kW)</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -1374,7 +1478,7 @@
     <t>COND</t>
   </si>
   <si>
-    <t>ENV</t>
+    <t>MF</t>
   </si>
   <si>
     <t>Total</t>
@@ -1513,6 +1617,203 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F9"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" s="0">
+        <v>145648.99049054796</v>
+      </c>
+      <c r="C2" s="0">
+        <v>130587</v>
+      </c>
+      <c r="D2" s="0">
+        <v>15061.990490547967</v>
+      </c>
+      <c r="E2" s="0">
+        <v>130587</v>
+      </c>
+      <c r="F2" s="0">
+        <v>15061.990490547969</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3" s="0">
+        <v>28557.044327736534</v>
+      </c>
+      <c r="C3" s="0">
+        <v>25603.87638160897</v>
+      </c>
+      <c r="D3" s="0">
+        <v>2953.1679461275626</v>
+      </c>
+      <c r="E3" s="0">
+        <v>28557.044327736527</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B4" s="0">
+        <v>103379.89878476347</v>
+      </c>
+      <c r="C4" s="0">
+        <v>92689.079389685212</v>
+      </c>
+      <c r="D4" s="0">
+        <v>10690.819395078257</v>
+      </c>
+      <c r="E4" s="0">
+        <v>103379.89878476346</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="B5" s="0">
+        <v>382.61991</v>
+      </c>
+      <c r="C5" s="0">
+        <v>343.05205974230586</v>
+      </c>
+      <c r="D5" s="0">
+        <v>39.567850257694133</v>
+      </c>
+      <c r="E5" s="0">
+        <v>382.61990999999995</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6" s="0">
+        <v>8676.5436695057342</v>
+      </c>
+      <c r="C6" s="0">
+        <v>7779.2767691258068</v>
+      </c>
+      <c r="D6" s="0">
+        <v>897.26690037992773</v>
+      </c>
+      <c r="E6" s="0">
+        <v>8676.543669505736</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="B7" s="0">
+        <v>967.32320249999975</v>
+      </c>
+      <c r="C7" s="0">
+        <v>867.2894650311024</v>
+      </c>
+      <c r="D7" s="0">
+        <v>100.03373746889736</v>
+      </c>
+      <c r="E7" s="0">
+        <v>967.32320249999975</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" s="0">
+        <v>131936.94311249998</v>
+      </c>
+      <c r="C8" s="0">
+        <v>118292.95577129418</v>
+      </c>
+      <c r="D8" s="0">
+        <v>13643.987341205819</v>
+      </c>
+      <c r="E8" s="0">
+        <v>131936.94311250001</v>
+      </c>
+      <c r="F8" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" s="0">
+        <v>15061.990490547969</v>
+      </c>
+      <c r="C9" s="0">
+        <v>13504.385753479228</v>
+      </c>
+      <c r="D9" s="0">
+        <v>1557.6047370687404</v>
+      </c>
+      <c r="E9" s="0">
+        <v>15061.990490547969</v>
+      </c>
+      <c r="F9" s="0">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1527,30 +1828,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="B2" s="0">
         <v>2.6953567091168638</v>
@@ -1573,7 +1874,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="B3" s="0">
         <v>3.0431632915320255</v>
@@ -1596,7 +1897,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="B4" s="0">
         <v>3.2454291073260335</v>
@@ -1619,7 +1920,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="B5" s="0">
         <v>3.7920704658077309</v>
@@ -1631,7 +1932,7 @@
         <v>0.39214916013571993</v>
       </c>
       <c r="E5" s="0">
-        <v>3.2646749999999995</v>
+        <v>3.264675</v>
       </c>
       <c r="F5" s="0">
         <v>0</v>
@@ -1642,19 +1943,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="B6" s="0">
-        <v>6.8373078561904954</v>
+        <v>6.8373078561904936</v>
       </c>
       <c r="C6" s="0">
-        <v>6.1302417408398817</v>
+        <v>6.1302417408398808</v>
       </c>
       <c r="D6" s="0">
-        <v>0.70706611535061326</v>
+        <v>0.70706611535061314</v>
       </c>
       <c r="E6" s="0">
-        <v>2.8392760461748545</v>
+        <v>2.8392760461748536</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -1665,7 +1966,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="B7" s="0">
         <v>3.7062191666666662</v>
@@ -1688,7 +1989,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="B8" s="0">
         <v>3.264675</v>
@@ -1711,7 +2012,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="B9" s="0">
         <v>2.7908079471091294</v>
@@ -1736,12 +2037,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="true"/>
+    <col min="1" max="1" width="5.140625" customWidth="true"/>
     <col min="2" max="2" width="7.140625" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
@@ -1753,45 +2054,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="B2" s="0">
         <v>49259</v>
       </c>
       <c r="C2" s="0">
-        <v>138290.54724144455</v>
+        <v>138290.54724144452</v>
       </c>
       <c r="D2" s="0">
         <v>123989.5150099957</v>
       </c>
       <c r="E2" s="0">
-        <v>14301.032231448846</v>
+        <v>14301.032231448842</v>
       </c>
       <c r="F2" s="0">
         <v>2.8074168627346179</v>
@@ -1800,24 +2101,24 @@
         <v>2.5170936277633671</v>
       </c>
       <c r="H2" s="0">
-        <v>0.29032323497125084</v>
+        <v>0.29032323497125079</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="B3" s="0">
         <v>36252</v>
       </c>
       <c r="C3" s="0">
-        <v>101774.47610785537</v>
+        <v>101774.47610785536</v>
       </c>
       <c r="D3" s="0">
         <v>91249.678193677581</v>
       </c>
       <c r="E3" s="0">
-        <v>10524.797914177785</v>
+        <v>10524.797914177783</v>
       </c>
       <c r="F3" s="0">
         <v>2.8074168627346179</v>
@@ -1826,12 +2127,12 @@
         <v>2.5170936277633671</v>
       </c>
       <c r="H3" s="0">
-        <v>0.29032323497125084</v>
+        <v>0.29032323497125079</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="B4" s="0">
         <v>42560</v>
@@ -1857,7 +2158,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="B5" s="0">
         <v>5517</v>
@@ -1883,7 +2184,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="B6" s="0">
         <v>120</v>
@@ -1909,7 +2210,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="B7" s="0">
         <v>220.90000000000001</v>
@@ -1921,7 +2222,7 @@
         <v>643.31633441666338</v>
       </c>
       <c r="E7" s="0">
-        <v>74.200529236432118</v>
+        <v>74.200529236432132</v>
       </c>
       <c r="F7" s="0">
         <v>3.2481523931783407</v>
@@ -1930,64 +2231,64 @@
         <v>2.9122514007092049</v>
       </c>
       <c r="H7" s="0">
-        <v>0.33590099246913591</v>
+        <v>0.33590099246913596</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="B8" s="0">
         <v>1269</v>
       </c>
       <c r="C8" s="0">
-        <v>8676.5436695057379</v>
+        <v>8676.543669505736</v>
       </c>
       <c r="D8" s="0">
-        <v>7779.2767691258096</v>
+        <v>7779.2767691258086</v>
       </c>
       <c r="E8" s="0">
-        <v>897.26690037992819</v>
+        <v>897.26690037992807</v>
       </c>
       <c r="F8" s="0">
-        <v>6.8373078561904954</v>
+        <v>6.8373078561904936</v>
       </c>
       <c r="G8" s="0">
-        <v>6.1302417408398817</v>
+        <v>6.1302417408398808</v>
       </c>
       <c r="H8" s="0">
-        <v>0.70706611535061326</v>
+        <v>0.70706611535061314</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="B9" s="0">
         <v>1530</v>
       </c>
       <c r="C9" s="0">
-        <v>9643.8668720057376</v>
+        <v>9643.866872005734</v>
       </c>
       <c r="D9" s="0">
-        <v>8646.5662341569114</v>
+        <v>8646.5662341569096</v>
       </c>
       <c r="E9" s="0">
-        <v>997.30063784882555</v>
+        <v>997.3006378488252</v>
       </c>
       <c r="F9" s="0">
-        <v>6.3031809620952526</v>
+        <v>6.3031809620952508</v>
       </c>
       <c r="G9" s="0">
-        <v>5.6513504798411187</v>
+        <v>5.6513504798411169</v>
       </c>
       <c r="H9" s="0">
-        <v>0.65183048225413431</v>
+        <v>0.65183048225413409</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="B10" s="0">
         <v>2835</v>
@@ -1999,7 +2300,7 @@
         <v>7135.9604347091454</v>
       </c>
       <c r="E10" s="0">
-        <v>823.0663711434961</v>
+        <v>823.06637114349599</v>
       </c>
       <c r="F10" s="0">
         <v>2.8074168627346179</v>
@@ -2008,12 +2309,12 @@
         <v>2.5170936277633671</v>
       </c>
       <c r="H10" s="0">
-        <v>0.29032323497125084</v>
+        <v>0.29032323497125079</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="B11" s="0">
         <v>9384</v>
@@ -2039,7 +2340,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="B12" s="0">
         <v>31854</v>
@@ -2065,33 +2366,33 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="B13" s="0">
         <v>117.2</v>
       </c>
       <c r="C13" s="0">
-        <v>382.61990999999995</v>
+        <v>382.61991</v>
       </c>
       <c r="D13" s="0">
-        <v>343.0520597423058</v>
+        <v>343.05205974230586</v>
       </c>
       <c r="E13" s="0">
-        <v>39.56785025769414</v>
+        <v>39.567850257694147</v>
       </c>
       <c r="F13" s="0">
-        <v>3.2646749999999995</v>
+        <v>3.264675</v>
       </c>
       <c r="G13" s="0">
-        <v>2.9270653561630189</v>
+        <v>2.9270653561630193</v>
       </c>
       <c r="H13" s="0">
-        <v>0.33760964383698072</v>
+        <v>0.33760964383698078</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="B14" s="0">
         <v>296.30000000000001</v>
@@ -2117,7 +2418,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="B15" s="0">
         <v>40000</v>
@@ -2143,7 +2444,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="B16" s="0">
         <v>130587</v>
@@ -2169,7 +2470,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="B17" s="0">
         <v>5397</v>
@@ -2197,7 +2498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2217,42 +2518,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -2267,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="0">
-        <v>6920.6474978010419</v>
+        <v>6920.647497801041</v>
       </c>
       <c r="G2" s="0">
         <v>0</v>
@@ -2287,7 +2588,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
@@ -2322,7 +2623,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="B4" s="0">
         <v>0</v>
@@ -2357,7 +2658,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="B5" s="0">
         <v>0</v>
@@ -2392,22 +2693,22 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="B6" s="0">
         <v>0</v>
       </c>
       <c r="C6" s="0">
-        <v>1606.4232586034577</v>
+        <v>1606.4232586034575</v>
       </c>
       <c r="D6" s="0">
-        <v>4982.9913766343261</v>
+        <v>4982.9913766343252</v>
       </c>
       <c r="E6" s="0">
         <v>0</v>
       </c>
       <c r="F6" s="0">
-        <v>463.86249941739783</v>
+        <v>463.86249941739777</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
@@ -2416,33 +2717,33 @@
         <v>0</v>
       </c>
       <c r="I6" s="0">
-        <v>725.99963447062771</v>
+        <v>725.99963447062737</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>7779.2767691258096</v>
+        <v>7779.2767691258086</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
       <c r="B7" s="0">
         <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>179.09556503981756</v>
+        <v>179.09556503981753</v>
       </c>
       <c r="D7" s="0">
-        <v>555.53955124049776</v>
+        <v>555.53955124049764</v>
       </c>
       <c r="E7" s="0">
         <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>51.714712165063325</v>
+        <v>51.714712165063311</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -2451,18 +2752,18 @@
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>80.93963658572379</v>
+        <v>80.939636585723775</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>867.2894650311024</v>
+        <v>867.28946503110228</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>321</v>
+        <v>352</v>
       </c>
       <c r="B8" s="0">
         <v>0</v>
@@ -2497,7 +2798,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="B9" s="0">
         <v>0</v>
@@ -2532,7 +2833,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>323</v>
+        <v>354</v>
       </c>
       <c r="B10" s="0">
         <v>130587</v>
@@ -2567,7 +2868,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="B11" s="0">
         <v>130587</v>
@@ -2582,7 +2883,7 @@
         <v>343.05205974230586</v>
       </c>
       <c r="F11" s="0">
-        <v>7779.2767691258086</v>
+        <v>7779.2767691258077</v>
       </c>
       <c r="G11" s="0">
         <v>867.28946503110251</v>
@@ -2597,14 +2898,14 @@
         <v>130586.99999999999</v>
       </c>
       <c r="K11" s="0">
-        <v>520253.91558996675</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2624,42 +2925,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -2674,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="0">
-        <v>7718.8795331515284</v>
+        <v>7718.8795331515275</v>
       </c>
       <c r="G2" s="0">
         <v>0</v>
@@ -2694,7 +2995,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
@@ -2729,7 +3030,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="B4" s="0">
         <v>0</v>
@@ -2764,7 +3065,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="B5" s="0">
         <v>0</v>
@@ -2799,22 +3100,22 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="B6" s="0">
         <v>0</v>
       </c>
       <c r="C6" s="0">
-        <v>1791.7091740841747</v>
+        <v>1791.7091740841743</v>
       </c>
       <c r="D6" s="0">
-        <v>5557.7328802246438</v>
+        <v>5557.732880224642</v>
       </c>
       <c r="E6" s="0">
         <v>0</v>
       </c>
       <c r="F6" s="0">
-        <v>517.36470526596361</v>
+        <v>517.36470526596349</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
@@ -2823,33 +3124,33 @@
         <v>0</v>
       </c>
       <c r="I6" s="0">
-        <v>809.73690993095602</v>
+        <v>809.73690993095568</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>8676.5436695057379</v>
+        <v>8676.543669505736</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="B7" s="0">
         <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>199.7525653348626</v>
+        <v>199.75256533486257</v>
       </c>
       <c r="D7" s="0">
-        <v>619.61584855881938</v>
+        <v>619.61584855881927</v>
       </c>
       <c r="E7" s="0">
         <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>57.679521088245643</v>
+        <v>57.679521088245629</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -2858,18 +3159,18 @@
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>90.275267518072184</v>
+        <v>90.27526751807217</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>967.32320249999975</v>
+        <v>967.32320249999964</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="B8" s="0">
         <v>0</v>
@@ -2881,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>382.61990999999995</v>
+        <v>382.61991</v>
       </c>
       <c r="F8" s="0">
         <v>0</v>
@@ -2904,7 +3205,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="B9" s="0">
         <v>15061.990490547971</v>
@@ -2939,7 +3240,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="B10" s="0">
         <v>130587</v>
@@ -2974,7 +3275,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="B11" s="0">
         <v>145648.99049054796</v>
@@ -2986,10 +3287,10 @@
         <v>103379.89878476349</v>
       </c>
       <c r="E11" s="0">
-        <v>382.61990999999995</v>
+        <v>382.61991</v>
       </c>
       <c r="F11" s="0">
-        <v>8676.5436695057397</v>
+        <v>8676.5436695057379</v>
       </c>
       <c r="G11" s="0">
         <v>967.32320249999987</v>
@@ -3004,14 +3305,14 @@
         <v>130586.99999999997</v>
       </c>
       <c r="K11" s="0">
-        <v>565198.35398810171</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I11"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3029,36 +3330,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>368</v>
+        <v>399</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>371</v>
+        <v>402</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>374</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="B2" s="0">
         <v>1.4166219442234023</v>
@@ -3073,7 +3374,7 @@
         <v>1.9930312814383697</v>
       </c>
       <c r="F2" s="0">
-        <v>3.5935430422729131</v>
+        <v>3.5935430422729127</v>
       </c>
       <c r="G2" s="0">
         <v>1.9479096714147495</v>
@@ -3087,7 +3388,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>358</v>
+        <v>389</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
@@ -3096,7 +3397,7 @@
         <v>0.084163146939674305</v>
       </c>
       <c r="D3" s="0">
-        <v>0.00017401378451251554</v>
+        <v>0.00017401378451251551</v>
       </c>
       <c r="E3" s="0">
         <v>0.022859006394078445</v>
@@ -3116,13 +3417,13 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="B4" s="0">
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0.0012539693746723586</v>
+        <v>0.0012539693746723584</v>
       </c>
       <c r="D4" s="0">
         <v>0.16404536405996364</v>
@@ -3140,12 +3441,12 @@
         <v>0.1295920490771155</v>
       </c>
       <c r="I4" s="0">
-        <v>0.00098536907826253148</v>
+        <v>0.00098536907826253127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="B5" s="0">
         <v>0</v>
@@ -3174,7 +3475,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="B6" s="0">
         <v>0</v>
@@ -3183,71 +3484,71 @@
         <v>0.042204082007559443</v>
       </c>
       <c r="D6" s="0">
-        <v>0.038566358482008213</v>
+        <v>0.038566358482008206</v>
       </c>
       <c r="E6" s="0">
-        <v>0.046691657534629658</v>
+        <v>0.046691657534629651</v>
       </c>
       <c r="F6" s="0">
         <v>1.5019468509824083</v>
       </c>
       <c r="G6" s="0">
-        <v>0.045634572890622706</v>
+        <v>0.045634572890622699</v>
       </c>
       <c r="H6" s="0">
-        <v>0.040197851921878268</v>
+        <v>0.040197851921878254</v>
       </c>
       <c r="I6" s="0">
-        <v>0.033163965744834094</v>
+        <v>0.03316396574483408</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="B7" s="0">
         <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>0.00083373669196197217</v>
+        <v>0.00083373669196197206</v>
       </c>
       <c r="D7" s="0">
-        <v>0.00076187389020923927</v>
+        <v>0.00076187389020923894</v>
       </c>
       <c r="E7" s="0">
-        <v>0.00092238822036623579</v>
+        <v>0.00092238822036623536</v>
       </c>
       <c r="F7" s="0">
-        <v>0.0018536050686689877</v>
+        <v>0.0018536050686689873</v>
       </c>
       <c r="G7" s="0">
         <v>0.13615054778275262</v>
       </c>
       <c r="H7" s="0">
-        <v>0.00079410385183407159</v>
+        <v>0.00079410385183407127</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00065515025507451074</v>
+        <v>0.00065515025507451063</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="B8" s="0">
         <v>0</v>
       </c>
       <c r="C8" s="0">
-        <v>0.0001992479763764421</v>
+        <v>0.00019924797637644207</v>
       </c>
       <c r="D8" s="0">
-        <v>0.00018207406767838693</v>
+        <v>0.00018207406767838685</v>
       </c>
       <c r="E8" s="0">
         <v>0.023917830928829511</v>
       </c>
       <c r="F8" s="0">
-        <v>0.0023271918788724233</v>
+        <v>0.0023271918788724229</v>
       </c>
       <c r="G8" s="0">
         <v>0.023376338655310015</v>
@@ -3256,12 +3557,12 @@
         <v>0.020591374920809705</v>
       </c>
       <c r="I8" s="0">
-        <v>0.00015656905088214606</v>
+        <v>0.00015656905088214603</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="B9" s="0">
         <v>0.27873476489346133</v>
@@ -3276,7 +3577,7 @@
         <v>0.39214916013571993</v>
       </c>
       <c r="F9" s="0">
-        <v>0.70706611535061326</v>
+        <v>0.70706611535061314</v>
       </c>
       <c r="G9" s="0">
         <v>0.38327102478504743</v>
@@ -3290,7 +3591,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>365</v>
+        <v>396</v>
       </c>
       <c r="B10" s="0">
         <v>1</v>
@@ -3319,7 +3620,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>366</v>
+        <v>397</v>
       </c>
       <c r="B11" s="0">
         <v>2.6953567091168633</v>
@@ -3334,7 +3635,7 @@
         <v>3.7920704658077304</v>
       </c>
       <c r="F11" s="0">
-        <v>6.8373078561904936</v>
+        <v>6.8373078561904927</v>
       </c>
       <c r="G11" s="0">
         <v>3.7062191666666657</v>
@@ -3350,7 +3651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q11"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3370,66 +3671,66 @@
     <col min="13" max="13" width="15.7109375" customWidth="true"/>
     <col min="14" max="14" width="15.7109375" customWidth="true"/>
     <col min="15" max="15" width="15.7109375" customWidth="true"/>
-    <col min="16" max="16" width="4.28515625" customWidth="true"/>
+    <col min="16" max="16" width="3.85546875" customWidth="true"/>
     <col min="17" max="17" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>386</v>
+        <v>417</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>387</v>
+        <v>418</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>388</v>
+        <v>419</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>391</v>
+        <v>422</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>392</v>
+        <v>423</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>394</v>
+        <v>425</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>395</v>
+        <v>426</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>396</v>
+        <v>427</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>398</v>
+        <v>429</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>399</v>
+        <v>430</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>400</v>
+        <v>431</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>401</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="B2" s="0">
         <v>1.4755183686376572</v>
@@ -3450,10 +3751,10 @@
         <v>1.7071595543529572</v>
       </c>
       <c r="H2" s="0">
-        <v>3.5935430422729131</v>
+        <v>3.5935430422729127</v>
       </c>
       <c r="I2" s="0">
-        <v>3.3128173495971085</v>
+        <v>3.3128173495971076</v>
       </c>
       <c r="J2" s="0">
         <v>1.4755183686376572</v>
@@ -3465,10 +3766,10 @@
         <v>1.705728253447321</v>
       </c>
       <c r="M2" s="0">
-        <v>1.7158434837639205</v>
+        <v>1.7158434837639207</v>
       </c>
       <c r="N2" s="0">
-        <v>1.7158434837639205</v>
+        <v>1.7158434837639203</v>
       </c>
       <c r="O2" s="0">
         <v>1.7158434837639205</v>
@@ -3482,22 +3783,22 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="B3" s="0">
-        <v>0.00017567547010455099</v>
+        <v>0.00017567547010455094</v>
       </c>
       <c r="C3" s="0">
-        <v>0.00017567547010455099</v>
+        <v>0.00017567547010455094</v>
       </c>
       <c r="D3" s="0">
-        <v>0.00014963785578548362</v>
+        <v>0.00014963785578548359</v>
       </c>
       <c r="E3" s="0">
-        <v>0.00014963785578548362</v>
+        <v>0.00014963785578548359</v>
       </c>
       <c r="F3" s="0">
-        <v>0.00014963785578548362</v>
+        <v>0.00014963785578548359</v>
       </c>
       <c r="G3" s="0">
         <v>0.01052254544072781</v>
@@ -3506,19 +3807,19 @@
         <v>0.0022241688302625491</v>
       </c>
       <c r="I3" s="0">
-        <v>0.0056559463933856706</v>
+        <v>0.0056559463933856698</v>
       </c>
       <c r="J3" s="0">
-        <v>0.00017567547010455099</v>
+        <v>0.00017567547010455094</v>
       </c>
       <c r="K3" s="0">
         <v>0.084163146939674305</v>
       </c>
       <c r="L3" s="0">
-        <v>0.00017401378451251554</v>
+        <v>0.00017401378451251551</v>
       </c>
       <c r="M3" s="0">
-        <v>0.019679810112308144</v>
+        <v>0.019679810112308148</v>
       </c>
       <c r="N3" s="0">
         <v>0.019679810112308144</v>
@@ -3535,22 +3836,22 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="B4" s="0">
-        <v>0.0011568274294067454</v>
+        <v>0.0011568274294067452</v>
       </c>
       <c r="C4" s="0">
-        <v>0.0011568274294067454</v>
+        <v>0.0011568274294067452</v>
       </c>
       <c r="D4" s="0">
-        <v>0.00098536907826253148</v>
+        <v>0.00098536907826253127</v>
       </c>
       <c r="E4" s="0">
-        <v>0.00098536907826253148</v>
+        <v>0.00098536907826253127</v>
       </c>
       <c r="F4" s="0">
-        <v>0.00098536907826253148</v>
+        <v>0.00098536907826253127</v>
       </c>
       <c r="G4" s="0">
         <v>0.069291228796873897</v>
@@ -3559,19 +3860,19 @@
         <v>0.01464620819826443</v>
       </c>
       <c r="I4" s="0">
-        <v>0.037244550552383578</v>
+        <v>0.037244550552383571</v>
       </c>
       <c r="J4" s="0">
-        <v>0.0011568274294067454</v>
+        <v>0.0011568274294067452</v>
       </c>
       <c r="K4" s="0">
-        <v>0.0012539693746723586</v>
+        <v>0.0012539693746723584</v>
       </c>
       <c r="L4" s="0">
         <v>0.16404536405996364</v>
       </c>
       <c r="M4" s="0">
-        <v>0.12959204907711547</v>
+        <v>0.1295920490771155</v>
       </c>
       <c r="N4" s="0">
         <v>0.12959204907711547</v>
@@ -3583,18 +3884,18 @@
         <v>0</v>
       </c>
       <c r="Q4" s="0">
-        <v>0.00098536907826253148</v>
+        <v>0.00098536907826253127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>379</v>
+        <v>410</v>
       </c>
       <c r="B5" s="0">
-        <v>0.00035515952086756416</v>
+        <v>0.00035515952086756411</v>
       </c>
       <c r="C5" s="0">
-        <v>0.00035515952086756416</v>
+        <v>0.00035515952086756411</v>
       </c>
       <c r="D5" s="0">
         <v>0.00030251980616755015</v>
@@ -3612,10 +3913,10 @@
         <v>0.013700673608491375</v>
       </c>
       <c r="I5" s="0">
-        <v>0.011434511659094995</v>
+        <v>0.011434511659094993</v>
       </c>
       <c r="J5" s="0">
-        <v>0.00035515952086756416</v>
+        <v>0.00035515952086756411</v>
       </c>
       <c r="K5" s="0">
         <v>0.0003849832316991541</v>
@@ -3624,10 +3925,10 @@
         <v>0.00035180012494081002</v>
       </c>
       <c r="M5" s="0">
-        <v>0.00036668251515284037</v>
+        <v>0.00036668251515284043</v>
       </c>
       <c r="N5" s="0">
-        <v>0.00036668251515284037</v>
+        <v>0.00036668251515284032</v>
       </c>
       <c r="O5" s="0">
         <v>0.00036668251515284037</v>
@@ -3641,25 +3942,25 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="B6" s="0">
-        <v>0.038934634836702502</v>
+        <v>0.038934634836702495</v>
       </c>
       <c r="C6" s="0">
-        <v>0.038934634836702502</v>
+        <v>0.038934634836702495</v>
       </c>
       <c r="D6" s="0">
-        <v>0.033163965744834101</v>
+        <v>0.033163965744834094</v>
       </c>
       <c r="E6" s="0">
-        <v>0.033163965744834101</v>
+        <v>0.033163965744834094</v>
       </c>
       <c r="F6" s="0">
-        <v>0.033163965744834101</v>
+        <v>0.033163965744834094</v>
       </c>
       <c r="G6" s="0">
-        <v>0.039342979332839402</v>
+        <v>0.039342979332839395</v>
       </c>
       <c r="H6" s="0">
         <v>1.5019468509824083</v>
@@ -3668,122 +3969,122 @@
         <v>1.2535171094255741</v>
       </c>
       <c r="J6" s="0">
-        <v>0.038934634836702502</v>
+        <v>0.038934634836702495</v>
       </c>
       <c r="K6" s="0">
         <v>0.042204082007559443</v>
       </c>
       <c r="L6" s="0">
-        <v>0.038566358482008213</v>
+        <v>0.038566358482008206</v>
       </c>
       <c r="M6" s="0">
-        <v>0.040197851921878261</v>
+        <v>0.040197851921878254</v>
       </c>
       <c r="N6" s="0">
-        <v>0.040197851921878261</v>
+        <v>0.040197851921878247</v>
       </c>
       <c r="O6" s="0">
-        <v>0.040197851921878261</v>
+        <v>0.040197851921878247</v>
       </c>
       <c r="P6" s="0">
         <v>0</v>
       </c>
       <c r="Q6" s="0">
-        <v>0.033163965744834094</v>
+        <v>0.03316396574483408</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>381</v>
+        <v>412</v>
       </c>
       <c r="B7" s="0">
-        <v>0.00076914914641871288</v>
+        <v>0.00076914914641871277</v>
       </c>
       <c r="C7" s="0">
-        <v>0.00076914914641871288</v>
+        <v>0.00076914914641871277</v>
       </c>
       <c r="D7" s="0">
-        <v>0.00065515025507451084</v>
+        <v>0.00065515025507451074</v>
       </c>
       <c r="E7" s="0">
-        <v>0.00065515025507451084</v>
+        <v>0.00065515025507451074</v>
       </c>
       <c r="F7" s="0">
-        <v>0.00065515025507451084</v>
+        <v>0.00065515025507451074</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00077721594406471013</v>
+        <v>0.00077721594406470992</v>
       </c>
       <c r="H7" s="0">
-        <v>0.0018536050686689877</v>
+        <v>0.0018536050686689873</v>
       </c>
       <c r="I7" s="0">
-        <v>0.024763083531659721</v>
+        <v>0.024763083531659718</v>
       </c>
       <c r="J7" s="0">
-        <v>0.00076914914641871288</v>
+        <v>0.00076914914641871277</v>
       </c>
       <c r="K7" s="0">
-        <v>0.00083373669196197217</v>
+        <v>0.00083373669196197206</v>
       </c>
       <c r="L7" s="0">
-        <v>0.00076187389020923927</v>
+        <v>0.00076187389020923894</v>
       </c>
       <c r="M7" s="0">
-        <v>0.00079410385183407148</v>
+        <v>0.00079410385183407127</v>
       </c>
       <c r="N7" s="0">
-        <v>0.00079410385183407148</v>
+        <v>0.00079410385183407105</v>
       </c>
       <c r="O7" s="0">
-        <v>0.00079410385183407148</v>
+        <v>0.00079410385183407116</v>
       </c>
       <c r="P7" s="0">
         <v>0</v>
       </c>
       <c r="Q7" s="0">
-        <v>0.00065515025507451074</v>
+        <v>0.00065515025507451063</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>382</v>
+        <v>413</v>
       </c>
       <c r="B8" s="0">
-        <v>0.00018381272220964733</v>
+        <v>0.00018381272220964728</v>
       </c>
       <c r="C8" s="0">
-        <v>0.00018381272220964733</v>
+        <v>0.00018381272220964728</v>
       </c>
       <c r="D8" s="0">
-        <v>0.00015656905088214606</v>
+        <v>0.000156569050882146</v>
       </c>
       <c r="E8" s="0">
-        <v>0.00015656905088214606</v>
+        <v>0.000156569050882146</v>
       </c>
       <c r="F8" s="0">
-        <v>0.00015656905088214606</v>
+        <v>0.000156569050882146</v>
       </c>
       <c r="G8" s="0">
         <v>0.011009947608984858</v>
       </c>
       <c r="H8" s="0">
-        <v>0.0023271918788724233</v>
+        <v>0.0023271918788724229</v>
       </c>
       <c r="I8" s="0">
-        <v>0.0059179286819117764</v>
+        <v>0.0059179286819117747</v>
       </c>
       <c r="J8" s="0">
-        <v>0.00018381272220964733</v>
+        <v>0.00018381272220964728</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0001992479763764421</v>
+        <v>0.00019924797637644207</v>
       </c>
       <c r="L8" s="0">
-        <v>0.00018207406767838693</v>
+        <v>0.00018207406767838685</v>
       </c>
       <c r="M8" s="0">
-        <v>0.020591374920809702</v>
+        <v>0.020591374920809705</v>
       </c>
       <c r="N8" s="0">
         <v>0.020591374920809702</v>
@@ -3795,12 +4096,12 @@
         <v>0</v>
       </c>
       <c r="Q8" s="0">
-        <v>0.00015656905088214606</v>
+        <v>0.00015656905088214603</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>383</v>
+        <v>414</v>
       </c>
       <c r="B9" s="0">
         <v>0.29032323497125084</v>
@@ -3818,13 +4119,13 @@
         <v>0.28860565815614991</v>
       </c>
       <c r="G9" s="0">
-        <v>0.33590099246913596</v>
+        <v>0.33590099246913591</v>
       </c>
       <c r="H9" s="0">
-        <v>0.70706611535061326</v>
+        <v>0.70706611535061314</v>
       </c>
       <c r="I9" s="0">
-        <v>0.65183048225413431</v>
+        <v>0.65183048225413409</v>
       </c>
       <c r="J9" s="0">
         <v>0.29032323497125084</v>
@@ -3836,7 +4137,7 @@
         <v>0.33561936946939974</v>
       </c>
       <c r="M9" s="0">
-        <v>0.33760964383698072</v>
+        <v>0.33760964383698078</v>
       </c>
       <c r="N9" s="0">
         <v>0.33760964383698072</v>
@@ -3853,7 +4154,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>384</v>
+        <v>415</v>
       </c>
       <c r="B10" s="0">
         <v>1</v>
@@ -3877,7 +4178,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="0">
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="J10" s="0">
         <v>1</v>
@@ -3889,13 +4190,13 @@
         <v>1</v>
       </c>
       <c r="M10" s="0">
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="N10" s="0">
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="O10" s="0">
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="P10" s="0">
         <v>1</v>
@@ -3906,7 +4207,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
       <c r="B11" s="0">
         <v>2.8074168627346179</v>
@@ -3927,10 +4228,10 @@
         <v>3.2481523931783407</v>
       </c>
       <c r="H11" s="0">
-        <v>6.8373078561904936</v>
+        <v>6.8373078561904927</v>
       </c>
       <c r="I11" s="0">
-        <v>6.3031809620952526</v>
+        <v>6.3031809620952517</v>
       </c>
       <c r="J11" s="0">
         <v>2.8074168627346179</v>
@@ -3942,7 +4243,7 @@
         <v>3.2454291073260335</v>
       </c>
       <c r="M11" s="0">
-        <v>3.2646749999999995</v>
+        <v>3.264675</v>
       </c>
       <c r="N11" s="0">
         <v>3.2646749999999995</v>
@@ -3961,52 +4262,81 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" customWidth="true"/>
+    <col min="2" max="2" width="3.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="B2" s="0">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G10"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.42578125" customWidth="true"/>
     <col min="2" max="2" width="13.42578125" customWidth="true"/>
-    <col min="3" max="3" width="7.7109375" customWidth="true"/>
+    <col min="3" max="3" width="7.28515625" customWidth="true"/>
     <col min="4" max="4" width="16.28515625" customWidth="true"/>
     <col min="5" max="5" width="12.7109375" customWidth="true"/>
-    <col min="6" max="6" width="9.7109375" customWidth="true"/>
+    <col min="6" max="6" width="13.7109375" customWidth="true"/>
     <col min="7" max="7" width="16.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>412</v>
+        <v>446</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="B2" s="0">
         <v>2531.8026537372293</v>
       </c>
       <c r="C2" s="0">
-        <v>1559.9999999999936</v>
+        <v>1559.9999999999841</v>
       </c>
       <c r="D2" s="0">
         <v>0</v>
@@ -4015,7 +4345,7 @@
         <v>2531.8026537372293</v>
       </c>
       <c r="F2" s="0">
-        <v>0</v>
+        <v>350.28810170213251</v>
       </c>
       <c r="G2" s="0">
         <v>0</v>
@@ -4023,22 +4353,22 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>404</v>
+        <v>438</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.18968456947890266</v>
+        <v>-0.18968456948123014</v>
       </c>
       <c r="C3" s="0">
-        <v>-29.999999999999126</v>
+        <v>-30.000000000001453</v>
       </c>
       <c r="D3" s="0">
         <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>-801.32082643498927</v>
+        <v>-801.3208264349953</v>
       </c>
       <c r="F3" s="0">
-        <v>0</v>
+        <v>-92.424871293788371</v>
       </c>
       <c r="G3" s="0">
         <v>0</v>
@@ -4046,22 +4376,22 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>405</v>
+        <v>439</v>
       </c>
       <c r="B4" s="0">
-        <v>1.1028756200325196</v>
+        <v>1.1028756200252747</v>
       </c>
       <c r="C4" s="0">
-        <v>56.000000000015525</v>
+        <v>56.000000000008988</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-2365.4261557935542</v>
+        <v>-2365.426155793572</v>
       </c>
       <c r="F4" s="0">
-        <v>0</v>
+        <v>-272.82980897529029</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -4069,22 +4399,22 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="B5" s="0">
-        <v>0.13845391476707444</v>
+        <v>0.13845391476703006</v>
       </c>
       <c r="C5" s="0">
-        <v>0.29999999999998228</v>
+        <v>0.29999999999993548</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
       </c>
       <c r="E5" s="0">
-        <v>0.40526365733985104</v>
+        <v>0.40526365733972114</v>
       </c>
       <c r="F5" s="0">
-        <v>0</v>
+        <v>0.046743376852332708</v>
       </c>
       <c r="G5" s="0">
         <v>0</v>
@@ -4092,22 +4422,22 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="B6" s="0">
-        <v>766.14712371946609</v>
+        <v>766.14712371946405</v>
       </c>
       <c r="C6" s="0">
-        <v>-768.69999999999811</v>
+        <v>-768.70000000000061</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>1640.4012671760156</v>
+        <v>1640.4012671760106</v>
       </c>
       <c r="F6" s="0">
-        <v>0</v>
+        <v>189.20496134292017</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
@@ -4115,13 +4445,13 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>408</v>
+        <v>442</v>
       </c>
       <c r="B7" s="0">
         <v>3.2697318007661913</v>
       </c>
       <c r="C7" s="0">
-        <v>0.69999999999990736</v>
+        <v>0.69999999999989315</v>
       </c>
       <c r="D7" s="0">
         <v>0</v>
@@ -4130,7 +4460,7 @@
         <v>9.5707186779672426</v>
       </c>
       <c r="F7" s="0">
-        <v>0</v>
+        <v>1.1038929886991238</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -4138,78 +4468,78 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>409</v>
+        <v>443</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.65317282591109915</v>
+        <v>-0.65317282590660852</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.99999999999911537</v>
+        <v>-0.9999999999946283</v>
       </c>
       <c r="D8" s="0">
         <v>-7.2759576141834259e-12</v>
       </c>
       <c r="E8" s="0">
-        <v>61.762399844686911</v>
+        <v>61.762399844699949</v>
       </c>
       <c r="F8" s="0">
-        <v>0</v>
+        <v>7.123715830322273</v>
       </c>
       <c r="G8" s="0">
-        <v>-2.1297203465386839e-11</v>
+        <v>-2.3753636924084276e-11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.29999999999849758</v>
+        <v>-0.29999999999853066</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.29999999999849758</v>
+        <v>-0.29999999999853066</v>
       </c>
       <c r="D9" s="0">
         <v>57</v>
       </c>
       <c r="E9" s="0">
-        <v>-345.82085133498691</v>
+        <v>-345.82085133498708</v>
       </c>
       <c r="F9" s="0">
-        <v>0</v>
+        <v>-39.887204501526007</v>
       </c>
       <c r="G9" s="0">
-        <v>142.62553047031983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>411</v>
+        <v>445</v>
       </c>
       <c r="B10" s="0">
-        <v>3301.3179813968732</v>
+        <v>3301.3179813968659</v>
       </c>
       <c r="C10" s="0">
-        <v>817.00000000001421</v>
+        <v>816.99999999999795</v>
       </c>
       <c r="D10" s="0">
         <v>56.999999999992724</v>
       </c>
       <c r="E10" s="0">
-        <v>731.37446952970868</v>
+        <v>731.37446952969231</v>
       </c>
       <c r="F10" s="0">
-        <v>0</v>
+        <v>142.62553047032173</v>
       </c>
       <c r="G10" s="0">
-        <v>142.62553047029854</v>
+        <v>-2.3753636924084276e-11</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4228,54 +4558,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>418</v>
+        <v>452</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>429</v>
+        <v>463</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>433</v>
+        <v>467</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>436</v>
+        <v>470</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>437</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>216.89248198066386</v>
+        <v>216.8924819806617</v>
       </c>
       <c r="D2" s="0">
-        <v>642.99367542053221</v>
+        <v>642.99367542052516</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
       </c>
       <c r="F2" s="0">
-        <v>756.52597724224961</v>
+        <v>756.52597724224756</v>
       </c>
       <c r="G2" s="0">
         <v>0</v>
@@ -4292,7 +4622,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>420</v>
+        <v>454</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
@@ -4324,7 +4654,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>421</v>
+        <v>455</v>
       </c>
       <c r="B4" s="0">
         <v>0</v>
@@ -4345,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>350.39943335766662</v>
+        <v>350.39943335767111</v>
       </c>
       <c r="I4" s="0">
         <v>0</v>
@@ -4356,7 +4686,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>422</v>
+        <v>456</v>
       </c>
       <c r="B5" s="0">
         <v>0</v>
@@ -4388,16 +4718,16 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="B6" s="0">
         <v>0</v>
       </c>
       <c r="C6" s="0">
-        <v>-215.19486817384688</v>
+        <v>-215.19486817384703</v>
       </c>
       <c r="D6" s="0">
-        <v>-636.31710697683036</v>
+        <v>-636.31710697683047</v>
       </c>
       <c r="E6" s="0">
         <v>0</v>
@@ -4412,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="0">
-        <v>-92.728369875127086</v>
+        <v>-92.728369875127115</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
@@ -4420,22 +4750,22 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>424</v>
+        <v>458</v>
       </c>
       <c r="B7" s="0">
         <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>-1.8872983762958773</v>
+        <v>-1.8872983762959026</v>
       </c>
       <c r="D7" s="0">
-        <v>-5.5736928236693339</v>
+        <v>-5.5736928236694165</v>
       </c>
       <c r="E7" s="0">
         <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>2.6558395954725569</v>
+        <v>2.6558395954725484</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -4444,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.81422635402478927</v>
+        <v>-0.81422635402479393</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -4452,7 +4782,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="B8" s="0">
         <v>0</v>
@@ -4464,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0.13845391476707444</v>
+        <v>0.13845391476703006</v>
       </c>
       <c r="F8" s="0">
         <v>0</v>
@@ -4484,7 +4814,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="B9" s="0">
         <v>0</v>
@@ -4516,7 +4846,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="B10" s="0">
         <v>2531.8026537372293</v>
@@ -4548,31 +4878,31 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="B11" s="0">
         <v>2531.8026537372293</v>
       </c>
       <c r="C11" s="0">
-        <v>-0.18968456947890266</v>
+        <v>-0.18968456948123014</v>
       </c>
       <c r="D11" s="0">
-        <v>1.1028756200325196</v>
+        <v>1.1028756200252747</v>
       </c>
       <c r="E11" s="0">
-        <v>0.13845391476707444</v>
+        <v>0.13845391476703006</v>
       </c>
       <c r="F11" s="0">
-        <v>766.14712371946609</v>
+        <v>766.14712371946405</v>
       </c>
       <c r="G11" s="0">
         <v>3.2697318007661913</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.65317282591109915</v>
+        <v>-0.65317282590660852</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.29999999999849758</v>
+        <v>-0.29999999999853066</v>
       </c>
       <c r="J11" s="0">
         <v>56.999999999992724</v>
@@ -4582,7 +4912,180 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B20"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="true"/>
+    <col min="2" max="2" width="28.5703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4601,63 +5104,63 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>449</v>
+        <v>483</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>451</v>
+        <v>485</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>452</v>
+        <v>486</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>453</v>
+        <v>487</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>454</v>
+        <v>488</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>455</v>
+        <v>489</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>456</v>
+        <v>490</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>457</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>-469.73365850810899</v>
+        <v>-469.73365850811257</v>
       </c>
       <c r="D2" s="0">
-        <v>-1386.6110120149526</v>
+        <v>-1386.6110120149629</v>
       </c>
       <c r="E2" s="0">
-        <v>0.23756524745468996</v>
+        <v>0.2375652474546138</v>
       </c>
       <c r="F2" s="0">
-        <v>961.60197418061512</v>
+        <v>961.60197418061216</v>
       </c>
       <c r="G2" s="0">
         <v>5.6103480040003397</v>
       </c>
       <c r="H2" s="0">
-        <v>36.205071776752547</v>
+        <v>36.205071776760178</v>
       </c>
       <c r="I2" s="0">
-        <v>-202.71991982121688</v>
+        <v>-202.71991982121693</v>
       </c>
       <c r="J2" s="0">
         <v>0</v>
@@ -4665,31 +5168,31 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
       </c>
       <c r="C3" s="0">
-        <v>-0.5207947676831548</v>
+        <v>-0.52079476768315569</v>
       </c>
       <c r="D3" s="0">
-        <v>-1.5398012533458625</v>
+        <v>-1.5398012533458645</v>
       </c>
       <c r="E3" s="0">
-        <v>0.002724746751921722</v>
+        <v>0.0027247467519208486</v>
       </c>
       <c r="F3" s="0">
-        <v>1.8838311076187426</v>
+        <v>1.8838311076187424</v>
       </c>
       <c r="G3" s="0">
         <v>0.06434770095725402</v>
       </c>
       <c r="H3" s="0">
-        <v>-29.484717746294461</v>
+        <v>-29.484717746294457</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.22443457630429359</v>
+        <v>-0.22443457630429375</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
@@ -4697,19 +5200,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>441</v>
+        <v>475</v>
       </c>
       <c r="B4" s="0">
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>-3.4294467633348868</v>
+        <v>-3.4294467633348926</v>
       </c>
       <c r="D4" s="0">
-        <v>-10.139630334532592</v>
+        <v>-10.139630334532606</v>
       </c>
       <c r="E4" s="0">
-        <v>0.017942526517413477</v>
+        <v>0.017942526517407725</v>
       </c>
       <c r="F4" s="0">
         <v>12.405075656641699</v>
@@ -4718,10 +5221,10 @@
         <v>0.4237312439938975</v>
       </c>
       <c r="H4" s="0">
-        <v>57.041193394510266</v>
+        <v>57.041193394511005</v>
       </c>
       <c r="I4" s="0">
-        <v>-1.477907381272817</v>
+        <v>-1.4779073812728181</v>
       </c>
       <c r="J4" s="0">
         <v>0</v>
@@ -4729,19 +5232,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
       <c r="B5" s="0">
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>-2.9491002880422119</v>
+        <v>-2.9491002880422141</v>
       </c>
       <c r="D5" s="0">
-        <v>-8.7202931885985446</v>
+        <v>-8.7202931885985464</v>
       </c>
       <c r="E5" s="0">
-        <v>5.0768629699547848e-05</v>
+        <v>5.0768629699531578e-05</v>
       </c>
       <c r="F5" s="0">
         <v>13.095105085977623</v>
@@ -4750,10 +5253,10 @@
         <v>0.0011989534805801731</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.01187880239054805</v>
+        <v>-0.011878802390546464</v>
       </c>
       <c r="I5" s="0">
-        <v>-1.270780072775239</v>
+        <v>-1.2707800727752394</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
@@ -4761,31 +5264,31 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="B6" s="0">
         <v>0</v>
       </c>
       <c r="C6" s="0">
-        <v>-323.29738065660325</v>
+        <v>-323.29738065660342</v>
       </c>
       <c r="D6" s="0">
-        <v>-955.9688281415182</v>
+        <v>-955.96882814151843</v>
       </c>
       <c r="E6" s="0">
-        <v>0.0055655499638112135</v>
+        <v>0.0055655499638094276</v>
       </c>
       <c r="F6" s="0">
         <v>-116.99579988935717</v>
       </c>
       <c r="G6" s="0">
-        <v>0.13143619475145574</v>
+        <v>0.13143619475145568</v>
       </c>
       <c r="H6" s="0">
-        <v>-1.3022228215748659</v>
+        <v>-1.3022228215746949</v>
       </c>
       <c r="I6" s="0">
-        <v>-139.31024000258134</v>
+        <v>-139.31024000258139</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
@@ -4793,31 +5296,31 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>444</v>
+        <v>478</v>
       </c>
       <c r="B7" s="0">
         <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>-0.65584300616078051</v>
+        <v>-0.65584300616078417</v>
       </c>
       <c r="D7" s="0">
-        <v>-1.9383419458884164</v>
+        <v>-1.9383419458884275</v>
       </c>
       <c r="E7" s="0">
-        <v>0.00010994678701804006</v>
+        <v>0.00010994678701800477</v>
       </c>
       <c r="F7" s="0">
-        <v>0.2928675330335837</v>
+        <v>0.29286753303358254</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0025965066174527878</v>
+        <v>0.0025965066174527865</v>
       </c>
       <c r="H7" s="0">
-        <v>-0.025725259164806495</v>
+        <v>-0.025725259164803171</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.28273914052957677</v>
+        <v>-0.28273914052957738</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -4825,95 +5328,95 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
       <c r="B8" s="0">
         <v>0</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.54491787557710725</v>
+        <v>-0.54491787557710814</v>
       </c>
       <c r="D8" s="0">
-        <v>-1.6111245347508403</v>
+        <v>-1.6111245347508418</v>
       </c>
       <c r="E8" s="0">
-        <v>0.0028509564682226611</v>
+        <v>0.0028509564682217474</v>
       </c>
       <c r="F8" s="0">
-        <v>1.9710897820198625</v>
+        <v>1.9710897820198623</v>
       </c>
       <c r="G8" s="0">
         <v>0.067328273400070901</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.0061478712401217038</v>
+        <v>-0.0061478712401208946</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.23483034030823585</v>
+        <v>-0.23483034030823599</v>
       </c>
       <c r="J8" s="0">
-        <v>-2.1297203465386839e-11</v>
+        <v>-2.3753636924084276e-11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>446</v>
+        <v>480</v>
       </c>
       <c r="B9" s="0">
-        <v>0</v>
+        <v>350.28810170213251</v>
       </c>
       <c r="C9" s="0">
-        <v>0</v>
+        <v>-92.424871293788371</v>
       </c>
       <c r="D9" s="0">
-        <v>0</v>
+        <v>-272.82980897529029</v>
       </c>
       <c r="E9" s="0">
-        <v>0</v>
+        <v>0.046743376852332708</v>
       </c>
       <c r="F9" s="0">
-        <v>0</v>
+        <v>189.20496134292017</v>
       </c>
       <c r="G9" s="0">
-        <v>0</v>
+        <v>1.1038929886991238</v>
       </c>
       <c r="H9" s="0">
-        <v>0</v>
+        <v>7.123715830322273</v>
       </c>
       <c r="I9" s="0">
-        <v>0</v>
+        <v>-39.887204501526007</v>
       </c>
       <c r="J9" s="0">
-        <v>142.62553047031983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>447</v>
+        <v>481</v>
       </c>
       <c r="B10" s="0">
         <v>2531.8026537372293</v>
       </c>
       <c r="C10" s="0">
-        <v>-0.18968456947890266</v>
+        <v>-0.18968456948123014</v>
       </c>
       <c r="D10" s="0">
-        <v>1.1028756200325196</v>
+        <v>1.1028756200252747</v>
       </c>
       <c r="E10" s="0">
-        <v>0.13845391476707444</v>
+        <v>0.13845391476703006</v>
       </c>
       <c r="F10" s="0">
-        <v>766.14712371946609</v>
+        <v>766.14712371946405</v>
       </c>
       <c r="G10" s="0">
         <v>3.2697318007661913</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.65317282591109915</v>
+        <v>-0.65317282590660852</v>
       </c>
       <c r="I10" s="0">
-        <v>-0.29999999999849758</v>
+        <v>-0.29999999999853066</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -4921,41 +5424,41 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>448</v>
+        <v>482</v>
       </c>
       <c r="B11" s="0">
-        <v>2531.8026537372293</v>
+        <v>2882.0907554393616</v>
       </c>
       <c r="C11" s="0">
-        <v>-801.32082643498927</v>
+        <v>-893.74569772878363</v>
       </c>
       <c r="D11" s="0">
-        <v>-2365.4261557935542</v>
+        <v>-2638.2559647688622</v>
       </c>
       <c r="E11" s="0">
-        <v>0.40526365733985104</v>
+        <v>0.45200703419205385</v>
       </c>
       <c r="F11" s="0">
-        <v>1640.4012671760156</v>
+        <v>1829.6062285189305</v>
       </c>
       <c r="G11" s="0">
-        <v>9.5707186779672426</v>
+        <v>10.674611666666365</v>
       </c>
       <c r="H11" s="0">
-        <v>61.762399844686911</v>
+        <v>68.886115675022225</v>
       </c>
       <c r="I11" s="0">
-        <v>-345.82085133498691</v>
+        <v>-385.7080558365131</v>
       </c>
       <c r="J11" s="0">
-        <v>142.62553047029854</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J12"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4974,39 +5477,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>458</v>
+        <v>492</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>470</v>
+        <v>504</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>471</v>
+        <v>505</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>472</v>
+        <v>506</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>473</v>
+        <v>507</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>474</v>
+        <v>508</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>475</v>
+        <v>509</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>476</v>
+        <v>510</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>477</v>
+        <v>511</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>478</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>459</v>
+        <v>493</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -5038,28 +5541,28 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>460</v>
+        <v>494</v>
       </c>
       <c r="B3" s="0">
-        <v>-469.73365850810899</v>
+        <v>-469.73365850811257</v>
       </c>
       <c r="C3" s="0">
-        <v>-0.5207947676831548</v>
+        <v>-0.52079476768315569</v>
       </c>
       <c r="D3" s="0">
-        <v>-3.4294467633348868</v>
+        <v>-3.4294467633348926</v>
       </c>
       <c r="E3" s="0">
-        <v>-2.9491002880422119</v>
+        <v>-2.9491002880422141</v>
       </c>
       <c r="F3" s="0">
-        <v>-323.29738065660325</v>
+        <v>-323.29738065660342</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.65584300616078051</v>
+        <v>-0.65584300616078417</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.54491787557710725</v>
+        <v>-0.54491787557710814</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
@@ -5070,28 +5573,28 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>461</v>
+        <v>495</v>
       </c>
       <c r="B4" s="0">
-        <v>-1386.6110120149526</v>
+        <v>-1386.6110120149629</v>
       </c>
       <c r="C4" s="0">
-        <v>-1.5398012533458625</v>
+        <v>-1.5398012533458645</v>
       </c>
       <c r="D4" s="0">
-        <v>-10.139630334532592</v>
+        <v>-10.139630334532606</v>
       </c>
       <c r="E4" s="0">
-        <v>-8.7202931885985446</v>
+        <v>-8.7202931885985464</v>
       </c>
       <c r="F4" s="0">
-        <v>-955.9688281415182</v>
+        <v>-955.96882814151843</v>
       </c>
       <c r="G4" s="0">
-        <v>-1.9383419458884164</v>
+        <v>-1.9383419458884275</v>
       </c>
       <c r="H4" s="0">
-        <v>-1.6111245347508403</v>
+        <v>-1.6111245347508418</v>
       </c>
       <c r="I4" s="0">
         <v>0</v>
@@ -5102,28 +5605,28 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="B5" s="0">
-        <v>0.23756524745468996</v>
+        <v>0.2375652474546138</v>
       </c>
       <c r="C5" s="0">
-        <v>0.002724746751921722</v>
+        <v>0.0027247467519208486</v>
       </c>
       <c r="D5" s="0">
-        <v>0.017942526517413477</v>
+        <v>0.017942526517407725</v>
       </c>
       <c r="E5" s="0">
-        <v>5.0768629699547848e-05</v>
+        <v>5.0768629699531578e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0055655499638112135</v>
+        <v>0.0055655499638094276</v>
       </c>
       <c r="G5" s="0">
-        <v>0.00010994678701804006</v>
+        <v>0.00010994678701800477</v>
       </c>
       <c r="H5" s="0">
-        <v>0.0028509564682226611</v>
+        <v>0.0028509564682217474</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -5134,13 +5637,13 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>463</v>
+        <v>497</v>
       </c>
       <c r="B6" s="0">
-        <v>961.60197418061512</v>
+        <v>961.60197418061216</v>
       </c>
       <c r="C6" s="0">
-        <v>1.8838311076187426</v>
+        <v>1.8838311076187424</v>
       </c>
       <c r="D6" s="0">
         <v>12.405075656641699</v>
@@ -5152,10 +5655,10 @@
         <v>-116.99579988935717</v>
       </c>
       <c r="G6" s="0">
-        <v>0.2928675330335837</v>
+        <v>0.29286753303358254</v>
       </c>
       <c r="H6" s="0">
-        <v>1.9710897820198625</v>
+        <v>1.9710897820198623</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -5166,7 +5669,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>464</v>
+        <v>498</v>
       </c>
       <c r="B7" s="0">
         <v>5.6103480040003397</v>
@@ -5181,10 +5684,10 @@
         <v>0.0011989534805801731</v>
       </c>
       <c r="F7" s="0">
-        <v>0.13143619475145574</v>
+        <v>0.13143619475145568</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0025965066174527878</v>
+        <v>0.0025965066174527865</v>
       </c>
       <c r="H7" s="0">
         <v>0.067328273400070901</v>
@@ -5198,28 +5701,28 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="B8" s="0">
-        <v>36.205071776752547</v>
+        <v>36.205071776760178</v>
       </c>
       <c r="C8" s="0">
-        <v>-29.484717746294461</v>
+        <v>-29.484717746294457</v>
       </c>
       <c r="D8" s="0">
-        <v>57.041193394510266</v>
+        <v>57.041193394511005</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.01187880239054805</v>
+        <v>-0.011878802390546464</v>
       </c>
       <c r="F8" s="0">
-        <v>-1.3022228215748659</v>
+        <v>-1.3022228215746949</v>
       </c>
       <c r="G8" s="0">
-        <v>-0.025725259164806495</v>
+        <v>-0.025725259164803171</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.0061478712401217038</v>
+        <v>-0.0061478712401208946</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -5230,28 +5733,28 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>466</v>
+        <v>500</v>
       </c>
       <c r="B9" s="0">
-        <v>-202.71991982121688</v>
+        <v>-202.71991982121693</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.22443457630429359</v>
+        <v>-0.22443457630429375</v>
       </c>
       <c r="D9" s="0">
-        <v>-1.477907381272817</v>
+        <v>-1.4779073812728181</v>
       </c>
       <c r="E9" s="0">
-        <v>-1.270780072775239</v>
+        <v>-1.2707800727752394</v>
       </c>
       <c r="F9" s="0">
-        <v>-139.31024000258134</v>
+        <v>-139.31024000258139</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.28273914052957677</v>
+        <v>-0.28273914052957738</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.23483034030823585</v>
+        <v>-0.23483034030823599</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -5262,25 +5765,25 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>467</v>
+        <v>501</v>
       </c>
       <c r="B10" s="0">
         <v>83.606977398219968</v>
       </c>
       <c r="C10" s="0">
-        <v>0.0085293577796293745</v>
+        <v>0.0085293577796293762</v>
       </c>
       <c r="D10" s="0">
-        <v>0.056166037460021391</v>
+        <v>0.056166037460021377</v>
       </c>
       <c r="E10" s="0">
         <v>0.017243628951547685</v>
       </c>
       <c r="F10" s="0">
-        <v>1.8903460474552509</v>
+        <v>1.89034604745525</v>
       </c>
       <c r="G10" s="0">
-        <v>0.037343564539241335</v>
+        <v>0.037343564539241328</v>
       </c>
       <c r="H10" s="0">
         <v>0.0089244359001325029</v>
@@ -5294,31 +5797,31 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>468</v>
+        <v>502</v>
       </c>
       <c r="B11" s="0">
         <v>2531.8026537372293</v>
       </c>
       <c r="C11" s="0">
-        <v>-0.18968456947890266</v>
+        <v>-0.18968456948123014</v>
       </c>
       <c r="D11" s="0">
-        <v>1.1028756200325196</v>
+        <v>1.1028756200252747</v>
       </c>
       <c r="E11" s="0">
-        <v>0.13845391476707444</v>
+        <v>0.13845391476703006</v>
       </c>
       <c r="F11" s="0">
-        <v>766.14712371946609</v>
+        <v>766.14712371946405</v>
       </c>
       <c r="G11" s="0">
         <v>3.2697318007661913</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.65317282591109915</v>
+        <v>-0.65317282590660852</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.29999999999849758</v>
+        <v>-0.29999999999853066</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
@@ -5326,31 +5829,31 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>469</v>
+        <v>503</v>
       </c>
       <c r="B12" s="0">
-        <v>1559.9999999999936</v>
+        <v>1559.9999999999841</v>
       </c>
       <c r="C12" s="0">
-        <v>-29.999999999999126</v>
+        <v>-30.000000000001453</v>
       </c>
       <c r="D12" s="0">
-        <v>56.000000000015525</v>
+        <v>56.000000000008988</v>
       </c>
       <c r="E12" s="0">
-        <v>0.29999999999998228</v>
+        <v>0.29999999999993548</v>
       </c>
       <c r="F12" s="0">
-        <v>-768.69999999999811</v>
+        <v>-768.70000000000061</v>
       </c>
       <c r="G12" s="0">
-        <v>0.69999999999990736</v>
+        <v>0.69999999999989315</v>
       </c>
       <c r="H12" s="0">
-        <v>-0.99999999999911537</v>
+        <v>-0.9999999999946283</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.29999999999849758</v>
+        <v>-0.29999999999853066</v>
       </c>
       <c r="J12" s="0">
         <v>56.999999999992724</v>
@@ -5360,12 +5863,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D17"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="true"/>
+    <col min="1" max="1" width="5.140625" customWidth="true"/>
     <col min="2" max="2" width="9.5703125" customWidth="true"/>
     <col min="3" max="3" width="9.5703125" customWidth="true"/>
     <col min="4" max="4" width="10.28515625" customWidth="true"/>
@@ -5373,485 +5876,240 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="true"/>
-    <col min="2" max="2" width="12.5703125" customWidth="true"/>
-    <col min="3" max="3" width="10.28515625" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -5860,167 +6118,243 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:C21"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="true"/>
-    <col min="2" max="2" width="11.28515625" customWidth="true"/>
-    <col min="3" max="3" width="9" customWidth="true"/>
-    <col min="4" max="4" width="15" customWidth="true"/>
-    <col min="5" max="5" width="12.42578125" customWidth="true"/>
+    <col min="1" max="1" width="9.5703125" customWidth="true"/>
+    <col min="2" max="2" width="14.42578125" customWidth="true"/>
+    <col min="3" max="3" width="10.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C10" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="E9" s="0" t="s">
+      <c r="C19" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -6029,10 +6363,151 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D9"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" customWidth="true"/>
+    <col min="2" max="2" width="9.85546875" customWidth="true"/>
+    <col min="3" max="3" width="15" customWidth="true"/>
+    <col min="4" max="4" width="12.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D17"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="true"/>
+    <col min="1" max="1" width="5.140625" customWidth="true"/>
     <col min="2" max="2" width="9.5703125" customWidth="true"/>
     <col min="3" max="3" width="9.5703125" customWidth="true"/>
     <col min="4" max="4" width="7.140625" customWidth="true"/>
@@ -6040,27 +6515,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="D2" s="0">
         <v>49259</v>
@@ -6068,13 +6543,13 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="D3" s="0">
         <v>36252</v>
@@ -6082,13 +6557,13 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="D4" s="0">
         <v>42560</v>
@@ -6096,13 +6571,13 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="D5" s="0">
         <v>5517</v>
@@ -6110,13 +6585,13 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="D6" s="0">
         <v>120</v>
@@ -6124,13 +6599,13 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="D7" s="0">
         <v>220.90000000000001</v>
@@ -6138,13 +6613,13 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="D8" s="0">
         <v>1269</v>
@@ -6152,13 +6627,13 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="D9" s="0">
         <v>1530</v>
@@ -6166,13 +6641,13 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="D10" s="0">
         <v>2835</v>
@@ -6180,13 +6655,13 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="D11" s="0">
         <v>9384</v>
@@ -6194,13 +6669,13 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="D12" s="0">
         <v>31854</v>
@@ -6208,13 +6683,13 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="D13" s="0">
         <v>117.2</v>
@@ -6222,13 +6697,13 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="D14" s="0">
         <v>296.30000000000001</v>
@@ -6236,13 +6711,13 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="D15" s="0">
         <v>40000</v>
@@ -6250,13 +6725,13 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="D16" s="0">
         <v>130587</v>
@@ -6264,13 +6739,13 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="D17" s="0">
         <v>5397</v>
@@ -6280,30 +6755,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C21"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.5703125" customWidth="true"/>
     <col min="2" max="2" width="7.7109375" customWidth="true"/>
-    <col min="3" max="3" width="7.85546875" customWidth="true"/>
+    <col min="3" max="3" width="7.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="B2" s="0">
         <v>130587</v>
@@ -6314,7 +6789,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="B3" s="0">
         <v>47729</v>
@@ -6325,7 +6800,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="B4" s="0">
         <v>6308</v>
@@ -6336,7 +6811,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="B5" s="0">
         <v>10172</v>
@@ -6347,7 +6822,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="B6" s="0">
         <v>9384</v>
@@ -6358,7 +6833,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="B7" s="0">
         <v>37043</v>
@@ -6369,7 +6844,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="B8" s="0">
         <v>31854</v>
@@ -6380,7 +6855,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="B9" s="0">
         <v>117.2</v>
@@ -6391,7 +6866,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="B10" s="0">
         <v>100.90000000000001</v>
@@ -6402,7 +6877,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="B11" s="0">
         <v>3055.9000000000001</v>
@@ -6413,7 +6888,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="B12" s="0">
         <v>1269</v>
@@ -6424,7 +6899,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="B13" s="0">
         <v>296.30000000000001</v>
@@ -6435,7 +6910,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="B14" s="0">
         <v>261</v>
@@ -6446,7 +6921,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B15" s="0">
         <v>41238</v>
@@ -6457,7 +6932,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="B16" s="0">
         <v>40413.5</v>
@@ -6468,7 +6943,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="B17" s="0">
         <v>5397</v>
@@ -6479,7 +6954,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="B18" s="0">
         <v>5397</v>
@@ -6490,7 +6965,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="B19" s="0">
         <v>40000</v>
@@ -6501,7 +6976,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="B20" s="0">
         <v>130587</v>
@@ -6512,7 +6987,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="B21" s="0">
         <v>5397</v>
@@ -6525,7 +7000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E10"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6539,24 +7014,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="B2" s="0">
         <v>130587</v>
@@ -6573,7 +7048,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="B3" s="0">
         <v>10172</v>
@@ -6590,7 +7065,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B4" s="0">
         <v>37043</v>
@@ -6607,7 +7082,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="B5" s="0">
         <v>117.2</v>
@@ -6624,7 +7099,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="B6" s="0">
         <v>3055.9000000000001</v>
@@ -6641,7 +7116,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="B7" s="0">
         <v>296.30000000000001</v>
@@ -6658,7 +7133,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="B8" s="0">
         <v>41238</v>
@@ -6675,7 +7150,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="B9" s="0">
         <v>5397</v>
@@ -6692,7 +7167,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="B10" s="0">
         <v>130587</v>
@@ -6711,7 +7186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6731,42 +7206,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -6781,7 +7256,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="0">
-        <v>2863.7692024372636</v>
+        <v>2863.7692024372632</v>
       </c>
       <c r="G2" s="0">
         <v>0</v>
@@ -6801,7 +7276,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
@@ -6836,7 +7311,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="B4" s="0">
         <v>0</v>
@@ -6871,7 +7346,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="B5" s="0">
         <v>0</v>
@@ -6906,7 +7381,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="B6" s="0">
         <v>0</v>
@@ -6915,7 +7390,7 @@
         <v>262.04892506953041</v>
       </c>
       <c r="D6" s="0">
-        <v>812.85397661196066</v>
+        <v>812.85397661196055</v>
       </c>
       <c r="E6" s="0">
         <v>0</v>
@@ -6930,33 +7405,33 @@
         <v>0</v>
       </c>
       <c r="I6" s="0">
-        <v>118.42920151647415</v>
+        <v>118.42920151647412</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>1269</v>
+        <v>1268.9999999999998</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="B7" s="0">
         <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>53.896587425648093</v>
+        <v>53.896587425648086</v>
       </c>
       <c r="D7" s="0">
-        <v>167.18273277834652</v>
+        <v>167.18273277834649</v>
       </c>
       <c r="E7" s="0">
         <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>15.562900760702176</v>
+        <v>15.562900760702172</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -6965,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>24.357779035303192</v>
+        <v>24.357779035303189</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -6976,7 +7451,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="B8" s="0">
         <v>0</v>
@@ -6988,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>117.19999999999999</v>
+        <v>117.2</v>
       </c>
       <c r="F8" s="0">
         <v>0</v>
@@ -7011,7 +7486,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="B9" s="0">
         <v>0</v>
@@ -7046,7 +7521,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="B10" s="0">
         <v>130587</v>
@@ -7081,7 +7556,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="B11" s="0">
         <v>130587</v>
@@ -7093,10 +7568,10 @@
         <v>37043</v>
       </c>
       <c r="E11" s="0">
-        <v>117.19999999999999</v>
+        <v>117.2</v>
       </c>
       <c r="F11" s="0">
-        <v>3055.9000000000005</v>
+        <v>3055.9000000000001</v>
       </c>
       <c r="G11" s="0">
         <v>296.29999999999995</v>
@@ -7111,203 +7586,6 @@
         <v>45396.999999999993</v>
       </c>
       <c r="K11" s="0">
-        <v>273303.39999999997</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="true"/>
-    <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
-    <col min="6" max="6" width="11.7109375" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="B2" s="0">
-        <v>145648.99049054796</v>
-      </c>
-      <c r="C2" s="0">
-        <v>130587</v>
-      </c>
-      <c r="D2" s="0">
-        <v>15061.990490547967</v>
-      </c>
-      <c r="E2" s="0">
-        <v>130587</v>
-      </c>
-      <c r="F2" s="0">
-        <v>15061.990490547969</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="B3" s="0">
-        <v>28557.044327736534</v>
-      </c>
-      <c r="C3" s="0">
-        <v>25603.87638160897</v>
-      </c>
-      <c r="D3" s="0">
-        <v>2953.1679461275626</v>
-      </c>
-      <c r="E3" s="0">
-        <v>28557.044327736527</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="B4" s="0">
-        <v>103379.89878476347</v>
-      </c>
-      <c r="C4" s="0">
-        <v>92689.079389685212</v>
-      </c>
-      <c r="D4" s="0">
-        <v>10690.819395078257</v>
-      </c>
-      <c r="E4" s="0">
-        <v>103379.89878476346</v>
-      </c>
-      <c r="F4" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="B5" s="0">
-        <v>382.61990999999995</v>
-      </c>
-      <c r="C5" s="0">
-        <v>343.0520597423058</v>
-      </c>
-      <c r="D5" s="0">
-        <v>39.567850257694133</v>
-      </c>
-      <c r="E5" s="0">
-        <v>382.61990999999989</v>
-      </c>
-      <c r="F5" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="B6" s="0">
-        <v>8676.543669505736</v>
-      </c>
-      <c r="C6" s="0">
-        <v>7779.2767691258077</v>
-      </c>
-      <c r="D6" s="0">
-        <v>897.26690037992785</v>
-      </c>
-      <c r="E6" s="0">
-        <v>8676.5436695057379</v>
-      </c>
-      <c r="F6" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="B7" s="0">
-        <v>967.32320249999975</v>
-      </c>
-      <c r="C7" s="0">
-        <v>867.2894650311024</v>
-      </c>
-      <c r="D7" s="0">
-        <v>100.03373746889736</v>
-      </c>
-      <c r="E7" s="0">
-        <v>967.32320249999975</v>
-      </c>
-      <c r="F7" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="B8" s="0">
-        <v>131936.94311249998</v>
-      </c>
-      <c r="C8" s="0">
-        <v>118292.95577129418</v>
-      </c>
-      <c r="D8" s="0">
-        <v>13643.987341205819</v>
-      </c>
-      <c r="E8" s="0">
-        <v>131936.94311250001</v>
-      </c>
-      <c r="F8" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="B9" s="0">
-        <v>15061.990490547969</v>
-      </c>
-      <c r="C9" s="0">
-        <v>13504.385753479228</v>
-      </c>
-      <c r="D9" s="0">
-        <v>1557.6047370687404</v>
-      </c>
-      <c r="E9" s="0">
-        <v>15061.990490547971</v>
-      </c>
-      <c r="F9" s="0">
         <v>0</v>
       </c>
     </row>
